--- a/src/test/resources/testData/demoData.xlsx
+++ b/src/test/resources/testData/demoData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dccagov-my.sharepoint.com/personal/fosman_dcca_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fosman\IdeaProjects\mtf-automation-testing-api\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFEDCF16-C469-4864-89AE-E3ED5229B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC01A6B-EFBA-4A1B-975F-B18BEF649C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="testData" sheetId="2" r:id="rId2"/>
+    <sheet name="Create" sheetId="1" r:id="rId1"/>
+    <sheet name="List users" sheetId="2" r:id="rId2"/>
+    <sheet name="Update" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>testcase</t>
   </si>
   <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -60,17 +55,23 @@
     <t>TC1000</t>
   </si>
   <si>
-    <t>/api/users</t>
-  </si>
-  <si>
-    <t>POST</t>
+    <t>TC1001</t>
+  </si>
+  <si>
+    <t>TC1002</t>
+  </si>
+  <si>
+    <t>TC1003</t>
+  </si>
+  <si>
+    <t>updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +84,6 @@
       <color rgb="FF297BDE"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,19 +103,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585723F-DA52-4C5A-A7AB-E6B3EDE8D02A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -456,21 +446,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://reqres.in/api/users" xr:uid="{93BDDF1A-97DD-4E56-BFC4-30DEE0727B33}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -479,25 +474,57 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50213A1B-1227-4059-96C5-1D4C35B0523F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/demoData.xlsx
+++ b/src/test/resources/testData/demoData.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fosman\IdeaProjects\mtf-automation-testing-api\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aturuk\IdeaProjects\mtf-automation-testing-api\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC01A6B-EFBA-4A1B-975F-B18BEF649C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864FBA1-E16A-43BA-8810-1183D1D2E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="List users" sheetId="2" r:id="rId2"/>
-    <sheet name="Update" sheetId="3" r:id="rId3"/>
+    <sheet name="Update-PUT" sheetId="6" r:id="rId2"/>
+    <sheet name="Update-PATCH" sheetId="7" r:id="rId3"/>
+    <sheet name="Delete" sheetId="8" r:id="rId4"/>
+    <sheet name="Single Resource" sheetId="5" r:id="rId5"/>
+    <sheet name="List users" sheetId="2" r:id="rId6"/>
+    <sheet name="Single User" sheetId="4" r:id="rId7"/>
+    <sheet name="Update" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>testcase</t>
   </si>
@@ -49,29 +54,164 @@
     <t>job</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TC1000</t>
-  </si>
-  <si>
-    <t>TC1001</t>
-  </si>
-  <si>
-    <t>TC1002</t>
-  </si>
-  <si>
     <t>TC1003</t>
   </si>
   <si>
     <t>updated</t>
+  </si>
+  <si>
+    <t>SU-TC001</t>
+  </si>
+  <si>
+    <t>SU-TC002</t>
+  </si>
+  <si>
+    <t>SU-TC003</t>
+  </si>
+  <si>
+    <t>TEST_CASE</t>
+  </si>
+  <si>
+    <t>PAGE_ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>LU-TC001</t>
+  </si>
+  <si>
+    <t>LU-TC002</t>
+  </si>
+  <si>
+    <t>LU-TC003</t>
+  </si>
+  <si>
+    <t>LU-TC004</t>
+  </si>
+  <si>
+    <t>SR-TC001</t>
+  </si>
+  <si>
+    <t>SR-TC002</t>
+  </si>
+  <si>
+    <t>SR-TC003</t>
+  </si>
+  <si>
+    <t>SR-TC004</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_JOB_ROLE</t>
+  </si>
+  <si>
+    <t>UserTestNameA</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>UserTestNameB</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>C-TC001</t>
+  </si>
+  <si>
+    <t>C-TC002</t>
+  </si>
+  <si>
+    <t>C-TC003</t>
+  </si>
+  <si>
+    <t>C-TC004</t>
+  </si>
+  <si>
+    <t>UserTestNameC</t>
+  </si>
+  <si>
+    <t>UserTestNameD</t>
+  </si>
+  <si>
+    <t>accounts payable</t>
+  </si>
+  <si>
+    <t>U-PUT-TC001</t>
+  </si>
+  <si>
+    <t>U-PUT-TC002</t>
+  </si>
+  <si>
+    <t>U-PUT-TC003</t>
+  </si>
+  <si>
+    <t>ManagerUpdated</t>
+  </si>
+  <si>
+    <t>EmployeeUpdated</t>
+  </si>
+  <si>
+    <t>accounts payable Updated</t>
+  </si>
+  <si>
+    <t>UserNameUpdatedA</t>
+  </si>
+  <si>
+    <t>UserNameUpdatedB</t>
+  </si>
+  <si>
+    <t>UserNameUpdatedC</t>
+  </si>
+  <si>
+    <t>U-PATCH-TC001</t>
+  </si>
+  <si>
+    <t>U-PATCH-TC002</t>
+  </si>
+  <si>
+    <t>U-PATCH-TC003</t>
+  </si>
+  <si>
+    <t>UserNamePatchUpdatedA</t>
+  </si>
+  <si>
+    <t>UserNamePatchUpdatedB</t>
+  </si>
+  <si>
+    <t>UserNamePatchUpdatedC</t>
+  </si>
+  <si>
+    <t>ManagerPatchUpdated</t>
+  </si>
+  <si>
+    <t>EmployeePatchUpdated</t>
+  </si>
+  <si>
+    <t>accounts payable Patch Updated</t>
+  </si>
+  <si>
+    <t>DEL-TC001</t>
+  </si>
+  <si>
+    <t>DEL-TC002</t>
+  </si>
+  <si>
+    <t>DEL-TC003</t>
+  </si>
+  <si>
+    <t>DEL-TC004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +224,22 @@
       <color rgb="FF297BDE"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,11 +262,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,42 +588,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585723F-DA52-4C5A-A7AB-E6B3EDE8D02A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -470,32 +663,380 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A839BA-21EA-47E7-9FFF-917F983A5C5A}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BE7BE-A976-41FA-902B-902773C98133}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5E5217-3B9E-4E6B-9BE1-C66EA93CEE1C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50E52F6-8B80-4F1F-B094-BAFB5253F689}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD4A827-31DF-4948-BD48-1F609859F571}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A839BA-21EA-47E7-9FFF-917F983A5C5A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C60E96B-8677-426A-A848-23ACDC8406A9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50213A1B-1227-4059-96C5-1D4C35B0523F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -518,13 +1059,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/demoData.xlsx
+++ b/src/test/resources/testData/demoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aturuk\IdeaProjects\mtf-automation-testing-api\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864FBA1-E16A-43BA-8810-1183D1D2E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7815388B-9F15-471B-907A-241DFC1CA6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Single Resource" sheetId="5" r:id="rId5"/>
     <sheet name="List users" sheetId="2" r:id="rId6"/>
     <sheet name="Single User" sheetId="4" r:id="rId7"/>
-    <sheet name="Update" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,22 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
-  <si>
-    <t>testcase</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>TC1003</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>SU-TC001</t>
   </si>
@@ -211,19 +195,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF297BDE"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="9.8000000000000007"/>
@@ -262,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -270,10 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,58 +577,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -679,59 +654,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -756,59 +731,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50E52F6-8B80-4F1F-B094-BAFB5253F689}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -832,15 +807,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -848,7 +823,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -856,7 +831,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -864,7 +839,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -880,7 +855,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -890,15 +865,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -906,7 +881,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -914,7 +889,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -922,7 +897,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -946,39 +921,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -993,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C60E96B-8677-426A-A848-23ACDC8406A9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1001,15 +976,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1017,7 +992,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1025,47 +1000,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50213A1B-1227-4059-96C5-1D4C35B0523F}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/demoData.xlsx
+++ b/src/test/resources/testData/demoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aturuk\IdeaProjects\mtf-automation-testing-api\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7815388B-9F15-471B-907A-241DFC1CA6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831416E-2501-4279-88D8-394C2838D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>SU-TC001</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>DEL-TC004</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>SECOND</t>
   </si>
 </sst>
 </file>
@@ -641,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BE7BE-A976-41FA-902B-902773C98133}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -716,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5E5217-3B9E-4E6B-9BE1-C66EA93CEE1C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -730,7 +742,7 @@
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,8 +755,11 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -757,8 +772,11 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -771,8 +789,11 @@
       <c r="D3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -784,6 +805,9 @@
       </c>
       <c r="D4" t="s">
         <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +879,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -912,7 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A839BA-21EA-47E7-9FFF-917F983A5C5A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -968,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C60E96B-8677-426A-A848-23ACDC8406A9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
